--- a/wash_P/IRI.xlsx
+++ b/wash_P/IRI.xlsx
@@ -56596,7 +56596,7 @@
         <v>0</v>
       </c>
       <c r="KQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR18" t="n">
         <v>0</v>
@@ -59541,7 +59541,7 @@
         <v>0</v>
       </c>
       <c r="IH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II19" t="n">
         <v>0</v>
